--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD2BFA3-4039-8F49-971A-95608F8AFC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B675C7-FD7E-F540-8934-06C51900069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="1580" yWindow="1620" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,14 +497,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="75.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="34">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="204">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="221">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -572,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="68">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -592,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="255">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -606,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="221">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B675C7-FD7E-F540-8934-06C51900069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A223F-5A90-E647-8A6C-422F12224BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1620" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,9 @@
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -535,6 +537,9 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -546,6 +551,9 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
@@ -557,6 +565,9 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -568,6 +579,9 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
@@ -578,6 +592,9 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A223F-5A90-E647-8A6C-422F12224BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D695CB6A-FD36-374E-B54E-9AD198D03087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1620" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -114,18 +114,65 @@
     <t>Who will be assisting with your child(s) 0-5 learning? Select all that apply.</t>
   </si>
   <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t>Open Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Modified 
+U.S. Census Bureau Household Pulse Survey </t>
+  </si>
+  <si>
+    <t>Current 23</t>
+  </si>
+  <si>
     <t>Current
-21</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
+21, 23</t>
+  </si>
+  <si>
+    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (2021) instead because of the pandemic?</t>
+  </si>
+  <si>
+    <t>•	Yes
+•	No 
+•	Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, why? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Safety
+•	Uncertain about the plan for school (in person/online)
+•	Not able to manage online instruction for my child along with my other responsibilities (work, etc.)</t>
+  </si>
+  <si>
+    <t>Including hours spent during weekdays and weekends, about how many hours did you spend on face-to-face activities with your children 0-5 in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including hours spent during weekdays and weekends, about how many hours did you spend working during the last 7 days? Enter the total number of hours. If none, enter 0 or NA if not working currently. </t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+If  your child has already begun the 2020-2021 school year, how are they reacting to online learning?</t>
+  </si>
+  <si>
+    <t>•	Very well
+•	Somewhat well
+•	Well
+•	Not well 
+•	Very poorly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,20 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,19 +565,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -538,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -552,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="221">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -566,75 +613,159 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51">
-      <c r="A6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68">
-      <c r="A7" s="3" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="3" t="s">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="255">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="221">
-      <c r="A10" s="3" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D695CB6A-FD36-374E-B54E-9AD198D03087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B548F6C-215C-DF46-8D18-EF289707D6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1620" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="1960" yWindow="1340" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -128,13 +128,6 @@
 U.S. Census Bureau Household Pulse Survey </t>
   </si>
   <si>
-    <t>Current 23</t>
-  </si>
-  <si>
-    <t>Current
-21, 23</t>
-  </si>
-  <si>
     <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (2021) instead because of the pandemic?</t>
   </si>
   <si>
@@ -166,6 +159,29 @@
 •	Well
 •	Not well 
 •	Very poorly</t>
+  </si>
+  <si>
+    <t>Past
+21, 23</t>
+  </si>
+  <si>
+    <t>Past 23</t>
+  </si>
+  <si>
+    <t>Thinking about your school-aged children, check all that apply:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	My child attends the same school this fall as they did in the spring
+•My child is attending a new school in the same district because they aged into the school (e.g., middle school to high school)  
+•	My child is attending a new school because our family moved our residence  
+•My child is attending a new school for another reason  
+•Not applicable (child(ren) not school-aged)  </t>
+  </si>
+  <si>
+    <t>Current, 27</t>
+  </si>
+  <si>
+    <t>Suggestion from Linda Jacobson</t>
   </si>
 </sst>
 </file>
@@ -538,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -588,7 +604,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
@@ -602,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -616,21 +632,21 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -644,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -658,35 +674,35 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -700,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -709,7 +725,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.2">
@@ -723,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -737,12 +753,12 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -751,12 +767,12 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -765,7 +781,21 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B548F6C-215C-DF46-8D18-EF289707D6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A5191-F0E5-1C4A-B48B-4219B26E35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1340" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="1960" yWindow="1320" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -88,9 +88,6 @@
 • Maybe</t>
   </si>
   <si>
-    <t>Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
-  </si>
-  <si>
     <t>• Yes
 • No
 • Maybe
@@ -182,6 +179,12 @@
   </si>
   <si>
     <t>Suggestion from Linda Jacobson</t>
+  </si>
+  <si>
+    <t>[If "Will you use a child care provider to help you when your child(ren) is not in school?" = Yes or Maybe]Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,9 +568,10 @@
     <col min="1" max="1" width="75.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,20 +584,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -601,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -615,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -629,41 +636,41 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -671,131 +678,131 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A5191-F0E5-1C4A-B48B-4219B26E35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F62A72-BE2E-C146-BD58-6FFD72C78D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1320" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="37600" yWindow="2940" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Occurrence</t>
-  </si>
-  <si>
-    <t>Instructions: In this set of questions we would like to know what the school reopening plans for all your school-aged children.</t>
   </si>
   <si>
     <t>Are there children in your household who are in Kindergarten through 12th grade?</t>
@@ -47,10 +44,6 @@
   <si>
     <t>• Yes
 • No</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-What has the school/school district your child(ren) plans to attend/currently attending decided regarding the school-year?</t>
   </si>
   <si>
     <t>• Open completely
@@ -60,10 +53,6 @@
 • Other
 • Not applicable (e.g., homeschooled)
 • Don't know yet</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-For the time your child will be learning remotely, who will be assisting with your child's online learning? Select all that apply.</t>
   </si>
   <si>
     <t>• You/other parent/step-parent
@@ -79,10 +68,6 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>[If yes to children in K-12]
-Will you use a child care provider to help you when your child(ren) is not in school?</t>
-  </si>
-  <si>
     <t>• Yes
 • No
 • Maybe</t>
@@ -92,9 +77,6 @@
 • No
 • Maybe
 • Not applicable</t>
-  </si>
-  <si>
-    <t>Instructions: The following questions are about your child(ren)'s 0-5 learning.</t>
   </si>
   <si>
     <t>For your child(ren) between the age of 0-5, which of the following are you doing to support their learning? Select all that apply.</t>
@@ -114,15 +96,7 @@
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>[If yes to children in K-12]
-Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
-  </si>
-  <si>
     <t>Open Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Modified 
-U.S. Census Bureau Household Pulse Survey </t>
   </si>
   <si>
     <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (2021) instead because of the pandemic?</t>
@@ -139,16 +113,6 @@
     <t>•	Safety
 •	Uncertain about the plan for school (in person/online)
 •	Not able to manage online instruction for my child along with my other responsibilities (work, etc.)</t>
-  </si>
-  <si>
-    <t>Including hours spent during weekdays and weekends, about how many hours did you spend on face-to-face activities with your children 0-5 in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Including hours spent during weekdays and weekends, about how many hours did you spend working during the last 7 days? Enter the total number of hours. If none, enter 0 or NA if not working currently. </t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-If  your child has already begun the 2020-2021 school year, how are they reacting to online learning?</t>
   </si>
   <si>
     <t>•	Very well
@@ -158,40 +122,56 @@
 •	Very poorly</t>
   </si>
   <si>
-    <t>Past
-21, 23</t>
-  </si>
-  <si>
-    <t>Past 23</t>
-  </si>
-  <si>
-    <t>Thinking about your school-aged children, check all that apply:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	My child attends the same school this fall as they did in the spring
-•My child is attending a new school in the same district because they aged into the school (e.g., middle school to high school)  
-•	My child is attending a new school because our family moved our residence  
-•My child is attending a new school for another reason  
-•Not applicable (child(ren) not school-aged)  </t>
-  </si>
-  <si>
-    <t>Current, 27</t>
-  </si>
-  <si>
-    <t>Suggestion from Linda Jacobson</t>
-  </si>
-  <si>
-    <t>[If "Will you use a child care provider to help you when your child(ren) is not in school?" = Yes or Maybe]Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>21, 23</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+What has the school/school district your child(ren) plans to attend/currently attending decided regarding the school-year?</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+For the time your child will be learning remotely, who will be assisting with your child's online learning? Select all that apply.</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+If  your child has already begun the 2020-2021 school year, how are they reacting to online learning?</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Will you use a child care provider to help you when your child(ren) is not in school?</t>
+  </si>
+  <si>
+    <t>[If "Will you use a child care provider to help you when your child(ren) is not in school?" = Yes or Maybe]
+Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
+  </si>
+  <si>
+    <t>Including hours spent during weekdays and weekends, about how many hours did you spend on face-to-face activities with your children 0-5 in this household during the last 7 days? 
+Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including hours spent during weekdays and weekends, about how many hours did you spend working during the last 7 days? 
+Enter the total number of hours. If none, enter 0 or NA if not working currently. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified 
+U.S. Census Bureau Household Pulse Survey </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +187,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,22 +224,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,18 +569,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="1" max="1" width="75.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -582,231 +595,210 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E14" s="6">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{788DBBC1-796F-1F40-9A38-67C1EFA7DE9B}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{51188D78-6E7A-A04E-8594-51E7417B09F5}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{961B27AF-33BE-0843-B0C4-52EA034DDD14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F62A72-BE2E-C146-BD58-6FFD72C78D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{882C84DF-7ECB-264C-900E-660CFB7D9BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37600" yWindow="2940" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="9380" yWindow="500" windowWidth="19420" windowHeight="16300" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
   <si>
     <t>Are there children in your household who are in Kindergarten through 12th grade?</t>
@@ -99,9 +96,6 @@
     <t>Open Response</t>
   </si>
   <si>
-    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (2021) instead because of the pandemic?</t>
-  </si>
-  <si>
     <t>•	Yes
 •	No 
 •	Not applicable</t>
@@ -122,9 +116,6 @@
 •	Very poorly</t>
   </si>
   <si>
-    <t>21, 23</t>
-  </si>
-  <si>
     <t>Source Link</t>
   </si>
   <si>
@@ -140,10 +131,6 @@
   </si>
   <si>
     <t>[If yes to children in K-12]
-If  your child has already begun the 2020-2021 school year, how are they reacting to online learning?</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
 Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
   </si>
   <si>
@@ -165,6 +152,22 @@
   <si>
     <t xml:space="preserve">RAPID Team Modified 
 U.S. Census Bureau Household Pulse Survey </t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+If  your child has already begun the 2020-20Aug 24 - Aug 27 school year, how are they reacting to online learning?</t>
+  </si>
+  <si>
+    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (20Aug 24 - Aug 27) instead because of the pandemic?</t>
+  </si>
+  <si>
+    <t>Aug 24 - Aug 27, Sept 8 - Sept 10</t>
+  </si>
+  <si>
+    <t>Sept 8 - Sept 10</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,201 +598,201 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,11 +45,27 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t>Are there children in your household who are in Kindergarten through 12th grade?</t>
   </si>
   <si>
     <t>• Yes
 • No</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>08/24/2020-08/27/2020 09/08 /2020-09/10/2020</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+What has the school/school district your child(ren) plans to attend/currently attending decided regarding the school-year?</t>
   </si>
   <si>
     <t>• Open completely
@@ -50,6 +75,10 @@
 • Other
 • Not applicable (e.g., homeschooled)
 • Don't know yet</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+For the time your child will be learning remotely, who will be assisting with your child's online learning? Select all that apply.</t>
   </si>
   <si>
     <t>• You/other parent/step-parent
@@ -65,9 +94,61 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>[If yes to children in K-12]
+If  your child has already begun the 2020-20Aug 24 - Aug 27 school year, how are they reacting to online learning?</t>
+  </si>
+  <si>
+    <t>•	Very well
+•	Somewhat well
+•	Well
+•	Not well 
+•	Very poorly</t>
+  </si>
+  <si>
+    <t>09/08 /2020-09/10/2020</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t>Open Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified 
+U.S. Census Bureau Household Pulse Survey </t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Will you use a child care provider to help you when your child(ren) is not in school?</t>
+  </si>
+  <si>
     <t>• Yes
 • No
 • Maybe</t>
+  </si>
+  <si>
+    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (20Aug 24 - Aug 27) instead because of the pandemic?</t>
+  </si>
+  <si>
+    <t>•	Yes
+•	No 
+•	Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, why? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Safety
+•	Uncertain about the plan for school (in person/online)
+•	Not able to manage online instruction for my child along with my other responsibilities (work, etc.)</t>
+  </si>
+  <si>
+    <t>[If "Will you use a child care provider to help you when your child(ren) is not in school?" = Yes or Maybe]
+Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
   </si>
   <si>
     <t>• Yes
@@ -90,91 +171,19 @@
     <t>Who will be assisting with your child(s) 0-5 learning? Select all that apply.</t>
   </si>
   <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Open Response</t>
-  </si>
-  <si>
-    <t>•	Yes
-•	No 
-•	Not applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, why? Select all that apply. </t>
-  </si>
-  <si>
-    <t>•	Safety
-•	Uncertain about the plan for school (in person/online)
-•	Not able to manage online instruction for my child along with my other responsibilities (work, etc.)</t>
-  </si>
-  <si>
-    <t>•	Very well
-•	Somewhat well
-•	Well
-•	Not well 
-•	Very poorly</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-What has the school/school district your child(ren) plans to attend/currently attending decided regarding the school-year?</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-For the time your child will be learning remotely, who will be assisting with your child's online learning? Select all that apply.</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-Will you use a child care provider to help you when your child(ren) is not in school?</t>
-  </si>
-  <si>
-    <t>[If "Will you use a child care provider to help you when your child(ren) is not in school?" = Yes or Maybe]
-Does this affect the child care arrangements you have for your child(ren) age 5 and under?</t>
-  </si>
-  <si>
     <t>Including hours spent during weekdays and weekends, about how many hours did you spend on face-to-face activities with your children 0-5 in this household during the last 7 days? 
 Enter the total number of hours. If none, enter 0.</t>
   </si>
   <si>
     <t xml:space="preserve">Including hours spent during weekdays and weekends, about how many hours did you spend working during the last 7 days? 
 Enter the total number of hours. If none, enter 0 or NA if not working currently. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Team Modified 
-U.S. Census Bureau Household Pulse Survey </t>
-  </si>
-  <si>
-    <t>[If yes to children in K-12]
-If  your child has already begun the 2020-20Aug 24 - Aug 27 school year, how are they reacting to online learning?</t>
-  </si>
-  <si>
-    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (20Aug 24 - Aug 27) instead because of the pandemic?</t>
-  </si>
-  <si>
-    <t>Aug 24 - Aug 27, Sept 8 - Sept 10</t>
-  </si>
-  <si>
-    <t>Sept 8 - Sept 10</t>
-  </si>
-  <si>
-    <t>Dates Used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,20 +583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,201 +607,201 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="189">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="204.75">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="78.75">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="47.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="47.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="110.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="78.75">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="236.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="204.75">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78.75">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolReopening.xlsx
+++ b/Data/SchoolReopening.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjuGzmxjglAJbhENda3uYM1Omr0VA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgjKpUwcDCJeNg91VVUw8ZjMPR/LA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +94,7 @@
 Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
   </si>
   <si>
-    <t>Open Response</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">RAPID Team Modified 
@@ -637,7 +637,7 @@
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -891,7 +891,7 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -929,7 +929,7 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
